--- a/MLP/MLP-sizing/MLP_sizing.xlsx
+++ b/MLP/MLP-sizing/MLP_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PART-MLC\MLP\MLP-sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDB0860-784B-464D-9B0C-28C32691CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B4F37-B97F-4071-A9D7-36AEA65CE340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="7995" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>clock ticks</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>matirx vector 2</t>
-  </si>
-  <si>
-    <t>bias + ReLU</t>
-  </si>
-  <si>
-    <t>bias + unity</t>
   </si>
   <si>
     <t>total (calculated)</t>
@@ -61,9 +55,6 @@
   </si>
   <si>
     <t>time (micro seconds)</t>
-  </si>
-  <si>
-    <t>MLP [50,20,1]</t>
   </si>
   <si>
     <t>total (simulated)</t>
@@ -109,6 +100,18 @@
   </si>
   <si>
     <t>number of weights and bias</t>
+  </si>
+  <si>
+    <t>MLP [50,20,20,1]</t>
+  </si>
+  <si>
+    <t>matirx vector 3</t>
+  </si>
+  <si>
+    <t>MLP [50,40,40,1]</t>
+  </si>
+  <si>
+    <t>MLP 4437DSP</t>
   </si>
 </sst>
 </file>
@@ -203,19 +206,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,6 +237,1799 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$8:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F43B-4EEF-86EF-D37335D34D94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974255328"/>
+        <c:axId val="1974256576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974255328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974256576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1974256576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974255328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total slices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$8:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF61-46EF-A1D7-F1F1C7DC6D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1823150336"/>
+        <c:axId val="1977041344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1823150336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1977041344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1977041344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1823150336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C78CF1-7CA2-4A8E-A9B9-3E3B06A0F557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C7978B-44CF-418B-BB8B-9AB2148404F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,115 +2295,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:U36"/>
+  <dimension ref="C6:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="3:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="Q7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <f>50*20+20+20*1+1</f>
@@ -619,49 +2409,52 @@
       <c r="F8">
         <v>1002</v>
       </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
       <c r="H8">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>L8-K8</f>
+        <v>147</v>
       </c>
       <c r="J8">
-        <f>M8-L8</f>
-        <v>147</v>
+        <f>SUM(F8:I8)</f>
+        <v>1171</v>
       </c>
       <c r="K8">
-        <f>SUM(F8:J8)</f>
+        <v>1024</v>
+      </c>
+      <c r="L8" s="1">
         <v>1171</v>
       </c>
-      <c r="L8">
-        <v>1024</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1171</v>
-      </c>
-      <c r="N8" s="2">
-        <f>(M8*1/40000000)*1000000</f>
+      <c r="M8" s="1">
+        <f>(L8*1/40000000)*1000000</f>
         <v>29.274999999999999</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
+      <c r="N8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>4437</v>
       </c>
       <c r="P8">
-        <v>4437</v>
+        <v>14122</v>
       </c>
       <c r="Q8">
-        <v>14122</v>
+        <v>9538</v>
       </c>
       <c r="R8">
-        <v>9538</v>
+        <v>18</v>
       </c>
       <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f>50*20+20+20*1+1</f>
@@ -673,49 +2466,52 @@
       <c r="F9">
         <v>52</v>
       </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
       <c r="H9">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I13" si="0">L9-K9</f>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J11" si="0">M9-L9</f>
-        <v>0</v>
+        <f t="shared" ref="J9:J13" si="1">SUM(F9:I9)</f>
+        <v>74</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K11" si="1">SUM(F9:J9)</f>
         <v>74</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>74</v>
       </c>
-      <c r="M9" s="2">
-        <v>74</v>
-      </c>
-      <c r="N9" s="2">
-        <f>(M9*1/40000000)*1000000</f>
+      <c r="M9" s="1">
+        <f>(L9*1/40000000)*1000000</f>
         <v>1.85</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>21</v>
+      <c r="N9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>8986</v>
       </c>
       <c r="P9">
-        <v>8986</v>
+        <v>46619</v>
       </c>
       <c r="Q9">
-        <v>46619</v>
+        <v>63400</v>
       </c>
       <c r="R9">
-        <v>63400</v>
+        <v>135</v>
       </c>
       <c r="S9">
-        <v>135</v>
-      </c>
-      <c r="T9">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <f>50*40+40+40*1+1</f>
@@ -727,49 +2523,52 @@
       <c r="F10">
         <v>2002</v>
       </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
       <c r="H10">
-        <v>42</v>
-      </c>
-      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>2290</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <v>2044</v>
       </c>
-      <c r="M10" s="2">
+      <c r="L10" s="1">
         <v>2290</v>
       </c>
-      <c r="N10" s="2">
-        <f>(M10*1/40000000)*1000000</f>
+      <c r="M10" s="1">
+        <f>(L10*1/40000000)*1000000</f>
         <v>57.25</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>21</v>
+      <c r="N10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>4337</v>
       </c>
       <c r="P10">
-        <v>4337</v>
+        <v>16611</v>
       </c>
       <c r="Q10">
-        <v>16611</v>
+        <v>10821</v>
       </c>
       <c r="R10">
-        <v>10821</v>
+        <v>19</v>
       </c>
       <c r="S10">
-        <v>19</v>
-      </c>
-      <c r="T10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <f>50*40+40+40*1+1</f>
@@ -781,177 +2580,386 @@
       <c r="F11">
         <v>102</v>
       </c>
+      <c r="G11">
+        <v>42</v>
+      </c>
       <c r="H11">
-        <v>42</v>
-      </c>
-      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <v>144</v>
       </c>
-      <c r="M11" s="2">
+      <c r="L11" s="1">
         <v>390</v>
       </c>
-      <c r="N11" s="2">
-        <f>(M11*1/40000000)*1000000</f>
+      <c r="M11" s="1">
+        <f>(L11*1/40000000)*1000000</f>
         <v>9.75</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11">
+        <v>11046</v>
+      </c>
+      <c r="P11">
+        <v>57953</v>
+      </c>
+      <c r="Q11">
+        <v>33057</v>
+      </c>
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <f>50*20+20+20*20+20*1+1</f>
+        <v>1441</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1002</v>
+      </c>
+      <c r="G12">
+        <v>402</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1675</v>
+      </c>
+      <c r="K12">
+        <v>1426</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1675</v>
+      </c>
+      <c r="M12" s="1">
+        <f>(L12*1/40000000)*1000000</f>
+        <v>41.875</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>4367</v>
+      </c>
+      <c r="P12">
+        <v>16958</v>
+      </c>
+      <c r="Q12">
+        <v>11210</v>
+      </c>
+      <c r="R12">
+        <v>18</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <f>50*20+20+20*20+20*1+1</f>
+        <v>1441</v>
+      </c>
+      <c r="E13">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+      <c r="K13">
+        <v>96</v>
+      </c>
+      <c r="L13" s="1">
+        <v>343</v>
+      </c>
+      <c r="M13" s="1">
+        <f>(L13*1/40000000)*1000000</f>
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <v>12339</v>
+      </c>
+      <c r="P13">
+        <v>64424</v>
+      </c>
+      <c r="Q13">
+        <v>36226</v>
+      </c>
+      <c r="R13">
+        <v>27</v>
+      </c>
+      <c r="S13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>50*40+40+40*40+40*1+1</f>
+        <v>3681</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2002</v>
+      </c>
+      <c r="G14">
+        <v>1602</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <f>L14-K14</f>
+        <v>489</v>
+      </c>
+      <c r="J14">
+        <f>SUM(F14:I14)</f>
+        <v>4135</v>
+      </c>
+      <c r="K14">
+        <v>3646</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4135</v>
+      </c>
+      <c r="M14" s="1">
+        <f>(L14*1/40000000)*1000000</f>
+        <v>103.375</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <v>5501</v>
+      </c>
+      <c r="P14">
+        <v>22027</v>
+      </c>
+      <c r="Q14">
+        <v>13834</v>
+      </c>
+      <c r="R14">
         <v>21</v>
       </c>
-      <c r="P11">
-        <v>11046</v>
-      </c>
-      <c r="Q11">
-        <v>57953</v>
-      </c>
-      <c r="R11">
-        <v>33057</v>
-      </c>
-      <c r="S11">
-        <v>30</v>
-      </c>
-      <c r="T11">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="7"/>
+      <c r="S14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>50*40+40+40*40+40*1+1</f>
+        <v>3681</v>
+      </c>
+      <c r="E15">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <f>L15-K15</f>
+        <v>489</v>
+      </c>
+      <c r="J15">
+        <f>SUM(F15:I15)</f>
+        <v>715</v>
+      </c>
+      <c r="K15">
+        <v>226</v>
+      </c>
+      <c r="L15" s="1">
+        <v>715</v>
+      </c>
+      <c r="M15" s="1">
+        <f>(L15*1/40000000)*1000000</f>
+        <v>17.875</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>15738</v>
+      </c>
+      <c r="P15">
+        <v>97044</v>
+      </c>
+      <c r="Q15">
+        <v>54253</v>
+      </c>
+      <c r="R15">
+        <v>42</v>
+      </c>
+      <c r="S15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>